--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/trial-cv/_cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BE05F1-FBFC-874A-A0F1-8D5CCC2B982D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87AD020-5A08-F44A-9DBA-C22BC1D3D560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>workshop-delivered</t>
   </si>
   <si>
-    <t>April, 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developing transparent and reproducible research with R </t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>Maximizing pilot phase measures to inform quality improvement: Using a sequential mixed methods design with interrupted time series to examine feasibility, uptake, and drivers of an evidence based practice in part c/early intervention systems</t>
+  </si>
+  <si>
+    <t>April, 2019</t>
   </si>
 </sst>
 </file>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,7 +880,7 @@
         <v>2018</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>42</v>
@@ -889,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -911,13 +911,13 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -925,147 +925,147 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>2017</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>2009</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
         <v>72</v>
-      </c>
-      <c r="F31" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>2018</v>
@@ -1074,13 +1074,13 @@
         <v>2019</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87AD020-5A08-F44A-9DBA-C22BC1D3D560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B10A5A-8AAE-4341-AE46-C82D7FA96DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>type</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>April, 2019</t>
+  </si>
+  <si>
+    <t>Core Member (two-year appointment): Social Systems Data Science Network</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,48 +879,51 @@
       <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="B15">
-        <v>2018</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -925,21 +931,27 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -947,7 +959,7 @@
         <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -955,7 +967,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -963,7 +975,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -971,7 +983,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -979,7 +991,7 @@
         <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -987,7 +999,7 @@
         <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -995,7 +1007,7 @@
         <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1003,7 +1015,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1011,7 +1023,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1019,18 +1031,15 @@
         <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30">
-        <v>2017</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1038,21 +1047,24 @@
         <v>64</v>
       </c>
       <c r="C31">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>2009</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1060,26 +1072,34 @@
         <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>2018</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>2019</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>75</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B10A5A-8AAE-4341-AE46-C82D7FA96DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93EDAB3-5CE2-034E-B2D5-9CD428624B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>type</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Core Member (two-year appointment): Social Systems Data Science Network</t>
+  </si>
+  <si>
+    <t>Data Visualization Society</t>
+  </si>
+  <si>
+    <t>https://www.datavisualizationsociety.com</t>
   </si>
 </sst>
 </file>
@@ -628,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1083,23 +1089,34 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>2018</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>2019</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>75</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93EDAB3-5CE2-034E-B2D5-9CD428624B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC60679-578F-6441-B07C-A453A20E5A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="25260" yWindow="1760" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>https://www.datavisualizationsociety.com</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>*Deep Learning with Keras and TensorFlow in R*</t>
+  </si>
+  <si>
+    <t>Two-day workshop lead by Dr. Brad Boehmke</t>
   </si>
 </sst>
 </file>
@@ -634,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,264 +830,271 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
+      <c r="C13" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>2016</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16">
-        <v>2018</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31">
-        <v>2017</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
       <c r="C32">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>2009</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1086,7 +1102,7 @@
         <v>66</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1094,29 +1110,37 @@
         <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>2018</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>2019</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>75</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC60679-578F-6441-B07C-A453A20E5A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A38169E-8D02-794D-80BC-28D0C8FEA1B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25260" yWindow="1760" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>type</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Educational Assessment</t>
   </si>
   <si>
-    <t>Reading Research Quarterly</t>
-  </si>
-  <si>
     <t>Journal of Special Education</t>
   </si>
   <si>
@@ -273,7 +270,7 @@
     <t>*Deep Learning with Keras and TensorFlow in R*</t>
   </si>
   <si>
-    <t>Two-day workshop lead by Dr. Brad Boehmke</t>
+    <t>Two-day workshop lead by Dr. Bradley Boehmke</t>
   </si>
 </sst>
 </file>
@@ -643,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,13 +833,13 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -913,10 +910,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -930,7 +927,7 @@
         <v>2018</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>42</v>
@@ -939,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -961,7 +958,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>47</v>
@@ -986,7 +983,7 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>52</v>
@@ -994,7 +991,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>53</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>54</v>
@@ -1010,7 +1007,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>55</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -1026,7 +1023,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
@@ -1042,7 +1039,7 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>59</v>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>60</v>
@@ -1058,7 +1055,7 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>61</v>
@@ -1068,38 +1065,38 @@
       <c r="A31" t="s">
         <v>63</v>
       </c>
+      <c r="C31">
+        <v>2017</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33">
-        <v>2009</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>67</v>
@@ -1107,41 +1104,33 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36">
+        <v>2019</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B37">
-        <v>2018</v>
-      </c>
-      <c r="C37">
-        <v>2019</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
         <v>74</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A38169E-8D02-794D-80BC-28D0C8FEA1B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9615D83-669D-0D4E-BEA7-66ED93DDE8E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25260" yWindow="1760" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Two-day workshop lead by Dr. Bradley Boehmke</t>
+  </si>
+  <si>
+    <t>COE Quantitative Curriculum Review Committee Member</t>
   </si>
 </sst>
 </file>
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,28 +946,31 @@
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -972,21 +978,27 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -994,7 +1006,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1002,7 +1014,7 @@
         <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1010,7 +1022,7 @@
         <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1018,7 +1030,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1026,7 +1038,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1034,7 +1046,7 @@
         <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1042,7 +1054,7 @@
         <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1050,7 +1062,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1058,18 +1070,15 @@
         <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>2017</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1077,21 +1086,24 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>2009</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1099,7 +1111,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1107,29 +1119,37 @@
         <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>2018</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>2019</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>74</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9615D83-669D-0D4E-BEA7-66ED93DDE8E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44175F-71BC-4F4E-BFB6-15AFB085B8B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25260" yWindow="1760" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>Terminal project of distinction</t>
   </si>
   <si>
-    <t>Awarded for outstanding Master's degree Terminal Project</t>
-  </si>
-  <si>
     <t>doc-committee</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>COE Quantitative Curriculum Review Committee Member</t>
+  </si>
+  <si>
+    <t>Awarded for outstanding Master's degree Terminal Project, University of Oregon College of Education</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,13 +836,13 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -953,7 +953,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -978,7 +978,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>47</v>
@@ -1103,7 +1103,7 @@
         <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1127,15 +1127,15 @@
         <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s">
         <v>77</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37">
         <v>2018</v>
@@ -1144,13 +1144,13 @@
         <v>2019</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44175F-71BC-4F4E-BFB6-15AFB085B8B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37F679-DDEE-9644-9208-2DB9E77AF3D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25260" yWindow="1760" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Awarded for outstanding Master's degree Terminal Project, University of Oregon College of Education</t>
+  </si>
+  <si>
+    <t>*Data Science Fellow*: College of Education, University of Oregon</t>
   </si>
 </sst>
 </file>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,15 +1084,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
       <c r="C32">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1097,21 +1100,24 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>2009</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1119,7 +1125,7 @@
         <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1127,29 +1133,37 @@
         <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>2018</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>2019</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>11</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>73</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37F679-DDEE-9644-9208-2DB9E77AF3D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0536933-024C-B24D-9B23-24B5B4056924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25260" yWindow="1760" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -277,13 +277,22 @@
   </si>
   <si>
     <t>*Data Science Fellow*: College of Education, University of Oregon</t>
+  </si>
+  <si>
+    <t>May, 2021</t>
+  </si>
+  <si>
+    <t>A Guide to Data Visualization: Best Practices for Communicating Open Educational Data</t>
+  </si>
+  <si>
+    <t>Webinar provided as part of the Center for Open Science research training series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +311,12 @@
       <color rgb="FF000000"/>
       <name val="Times"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF232333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,14 +339,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,509 +683,684 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>2011</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>2015</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2008</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>2009</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>2003</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>2007</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2">
         <v>2018</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="2">
         <v>2016</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>2018</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>2019</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4">
         <v>2021</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C33">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4">
         <v>2017</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C34">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4">
         <v>2009</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G37" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="4">
         <v>2018</v>
       </c>
-      <c r="C38">
+      <c r="C39" s="4">
         <v>2019</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/anderson-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0536933-024C-B24D-9B23-24B5B4056924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B5CE9-8582-E544-B8D4-E4D7DEC23411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20040" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -87,15 +87,9 @@
     <t>Research Assistant Professor</t>
   </si>
   <si>
-    <t>Behavioral Research and Teaching, University of Oregon</t>
-  </si>
-  <si>
     <t>Research Associate</t>
   </si>
   <si>
-    <t>Behavioral Research and Teaching, University of Oregon (*on-leave during post-doc*)</t>
-  </si>
-  <si>
     <t>IES Post-Doctoral Research Fellow</t>
   </si>
   <si>
@@ -286,6 +280,21 @@
   </si>
   <si>
     <t>Webinar provided as part of the Center for Open Science research training series</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Research Associate Professor</t>
+  </si>
+  <si>
+    <t>Behavioral Research and Teaching (BRT), University of Oregon</t>
+  </si>
+  <si>
+    <t>BRT, University of Oregon</t>
+  </si>
+  <si>
+    <t>BRT, University of Oregon (*on-leave during post-doc*)</t>
   </si>
 </sst>
 </file>
@@ -666,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,15 +817,15 @@
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="B7" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -827,56 +836,56 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -884,89 +893,91 @@
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
+      <c r="C14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -974,19 +985,17 @@
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2">
+        <v>2016</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -994,77 +1003,79 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1072,17 +1083,17 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1090,44 +1101,48 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1136,12 +1151,12 @@
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1150,12 +1165,12 @@
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1164,12 +1179,12 @@
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1178,12 +1193,12 @@
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1192,12 +1207,12 @@
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1206,12 +1221,12 @@
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1220,12 +1235,12 @@
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1234,44 +1249,42 @@
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="4">
-        <v>2021</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1280,44 +1293,46 @@
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="4">
+        <v>2009</v>
+      </c>
       <c r="D36" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1326,41 +1341,55 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
